--- a/tools_n_data/itsumonanndodemo-ghibri.xlsx
+++ b/tools_n_data/itsumonanndodemo-ghibri.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="53">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
@@ -137,25 +137,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">지브리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">애니메이션</t>
+      <t xml:space="preserve">출처: 스튜디오지브리 콜렉션 –</t>
     </r>
     <r>
       <rPr>
@@ -231,7 +213,7 @@
     <t xml:space="preserve">#quaver</t>
   </si>
   <si>
-    <t xml:space="preserve">semiquaver</t>
+    <t xml:space="preserve">quaver</t>
   </si>
   <si>
     <r>
@@ -286,13 +268,25 @@
     <t xml:space="preserve">#A</t>
   </si>
   <si>
+    <t xml:space="preserve">3a</t>
+  </si>
+  <si>
     <t xml:space="preserve">#E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1i</t>
   </si>
   <si>
     <t xml:space="preserve">#C</t>
   </si>
   <si>
+    <t xml:space="preserve">2m</t>
+  </si>
+  <si>
     <t xml:space="preserve">#G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a</t>
   </si>
   <si>
     <r>
@@ -330,13 +324,13 @@
     <t xml:space="preserve">Gm7</t>
   </si>
   <si>
-    <t xml:space="preserve">2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">3c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5c</t>
   </si>
   <si>
     <t xml:space="preserve">Gm</t>
@@ -703,8 +697,8 @@
   </sheetPr>
   <dimension ref="A1:CI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W69" activeCellId="0" sqref="W69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1168,15 +1162,15 @@
       <c r="H20" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="22" t="n">
-        <v>3</v>
+      <c r="J20" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="21"/>
-      <c r="P20" s="22" t="n">
-        <v>3</v>
+      <c r="P20" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="R20" s="22"/>
       <c r="T20" s="21"/>
@@ -1189,32 +1183,32 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="F21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>1</v>
+      <c r="H21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="Z21" s="9" t="s">
         <v>33</v>
@@ -1222,7 +1216,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="23"/>
       <c r="H22" s="2" t="n">
@@ -1231,11 +1225,11 @@
       <c r="N22" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="T22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U22" s="0" t="n">
-        <v>2</v>
+      <c r="T22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="Z22" s="9" t="s">
         <v>33</v>
@@ -1243,17 +1237,17 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B23" s="23"/>
-      <c r="H23" s="2" t="n">
-        <v>2</v>
+      <c r="H23" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="N23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T23" s="2" t="n">
-        <v>2</v>
+      <c r="T23" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Z23" s="9" t="s">
         <v>33</v>
@@ -1261,7 +1255,7 @@
     </row>
     <row r="24" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -1293,7 +1287,7 @@
     </row>
     <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B25" s="23"/>
       <c r="H25" s="2"/>
@@ -1305,7 +1299,7 @@
     </row>
     <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B26" s="23"/>
       <c r="H26" s="2"/>
@@ -1320,16 +1314,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N27" s="21" t="s">
         <v>30</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Z27" s="9" t="s">
         <v>33</v>
@@ -1411,11 +1405,11 @@
       <c r="S28" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="T28" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="V28" s="0" t="n">
-        <v>1</v>
+      <c r="T28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="W28" s="0" t="n">
         <v>0</v>
@@ -1427,37 +1421,37 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y29" s="0" t="n">
-        <v>1</v>
+      <c r="P29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="Z29" s="9" t="s">
         <v>33</v>
@@ -1465,19 +1459,19 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="2" t="n">
-        <v>2</v>
+      <c r="H30" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="N30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T30" s="2" t="n">
-        <v>2</v>
+      <c r="T30" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Z30" s="9" t="s">
         <v>33</v>
@@ -1485,16 +1479,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="T31" s="2" t="n">
         <v>0</v>
@@ -1505,7 +1499,7 @@
     </row>
     <row r="32" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
@@ -1537,7 +1531,7 @@
     </row>
     <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33" s="23"/>
       <c r="H33" s="2"/>
@@ -1549,7 +1543,7 @@
     </row>
     <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34" s="23"/>
       <c r="H34" s="2"/>
@@ -1649,15 +1643,15 @@
       <c r="H36" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="22" t="n">
-        <v>3</v>
+      <c r="J36" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N36" s="21"/>
-      <c r="P36" s="22" t="n">
-        <v>3</v>
+      <c r="P36" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="R36" s="22"/>
       <c r="T36" s="21"/>
@@ -1670,34 +1664,34 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="0" t="n">
-        <v>1</v>
+      <c r="F37" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y37" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="Z37" s="9" t="s">
         <v>33</v>
@@ -1705,10 +1699,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0</v>
@@ -1716,11 +1710,11 @@
       <c r="N38" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="T38" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U38" s="0" t="n">
-        <v>2</v>
+      <c r="T38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="Z38" s="9" t="s">
         <v>33</v>
@@ -1728,19 +1722,19 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="N39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T39" s="2" t="n">
-        <v>2</v>
+      <c r="T39" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="Z39" s="9" t="s">
         <v>33</v>
@@ -1748,7 +1742,7 @@
     </row>
     <row r="40" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -1780,7 +1774,7 @@
     </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B41" s="23"/>
       <c r="H41" s="2"/>
@@ -1792,7 +1786,7 @@
     </row>
     <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B42" s="23"/>
       <c r="H42" s="2"/>
@@ -1807,16 +1801,16 @@
         <v>29</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N43" s="21" t="s">
         <v>30</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Z43" s="9" t="s">
         <v>33</v>
@@ -1898,11 +1892,11 @@
       <c r="S44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="T44" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="V44" s="0" t="n">
-        <v>1</v>
+      <c r="T44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="V44" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="W44" s="0" t="n">
         <v>0</v>
@@ -1914,37 +1908,37 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R45" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X45" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y45" s="0" t="n">
-        <v>1</v>
+      <c r="P45" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X45" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y45" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="Z45" s="9" t="s">
         <v>33</v>
@@ -1952,19 +1946,19 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B46" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="H46" s="2" t="n">
-        <v>2</v>
+      <c r="H46" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="N46" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T46" s="2" t="n">
-        <v>2</v>
+      <c r="T46" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Z46" s="9" t="s">
         <v>33</v>
@@ -1972,16 +1966,16 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="T47" s="2" t="n">
         <v>0</v>
@@ -1992,7 +1986,7 @@
     </row>
     <row r="48" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
@@ -2024,7 +2018,7 @@
     </row>
     <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B49" s="23"/>
       <c r="H49" s="2"/>
@@ -2036,7 +2030,7 @@
     </row>
     <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B50" s="23"/>
       <c r="H50" s="2"/>
@@ -2137,32 +2131,32 @@
       <c r="L52" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="M52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="P52" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R52" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="T52" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="V52" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W52" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="X52" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y52" s="0" t="n">
-        <v>1</v>
+      <c r="M52" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P52" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="R52" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="T52" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="V52" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W52" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="X52" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y52" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="Z52" s="9" t="s">
         <v>33</v>
@@ -2170,16 +2164,16 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" s="2" t="n">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="R53" s="22"/>
       <c r="T53" s="2" t="n">
@@ -2191,10 +2185,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>0</v>
@@ -2216,16 +2210,16 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N55" s="2" t="n">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="T55" s="2" t="n">
         <v>0</v>
@@ -2236,7 +2230,7 @@
     </row>
     <row r="56" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
@@ -2268,7 +2262,7 @@
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B57" s="23"/>
       <c r="H57" s="2"/>
@@ -2280,7 +2274,7 @@
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B58" s="23"/>
       <c r="H58" s="2"/>
@@ -2298,13 +2292,13 @@
         <v>32</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N59" s="21" t="s">
         <v>32</v>
       </c>
       <c r="T59" s="21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Z59" s="9" t="s">
         <v>33</v>
@@ -2376,7 +2370,7 @@
         <v>34</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>0</v>
@@ -2390,8 +2384,8 @@
       <c r="J60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K60" s="0" t="n">
-        <v>1</v>
+      <c r="K60" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="L60" s="22" t="n">
         <v>0</v>
@@ -2406,25 +2400,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R61" s="22" t="n">
-        <v>1</v>
+      <c r="N61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R61" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="S61" s="0" t="n">
         <v>0</v>
@@ -2435,8 +2429,8 @@
       <c r="X61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Y61" s="0" t="n">
-        <v>1</v>
+      <c r="Y61" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="Z61" s="9" t="s">
         <v>33</v>
@@ -2444,20 +2438,20 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N62" s="2" t="n">
-        <v>2</v>
+      <c r="N62" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="R62" s="22"/>
-      <c r="T62" s="2" t="n">
-        <v>2</v>
+      <c r="T62" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="X62" s="22"/>
       <c r="Z62" s="9" t="s">
@@ -2466,19 +2460,19 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N63" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T63" s="2" t="n">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z63" s="9" t="s">
         <v>33</v>
@@ -2486,7 +2480,7 @@
     </row>
     <row r="64" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
@@ -2518,7 +2512,7 @@
     </row>
     <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B65" s="23"/>
       <c r="H65" s="2"/>
@@ -2530,7 +2524,7 @@
     </row>
     <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B66" s="23"/>
       <c r="H66" s="2"/>
@@ -2545,7 +2539,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>31</v>
@@ -2637,32 +2631,32 @@
       <c r="L68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="M68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="P68" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R68" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="T68" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="V68" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W68" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="X68" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y68" s="0" t="n">
-        <v>1</v>
+      <c r="M68" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N68" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="P68" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="R68" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="T68" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="V68" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W68" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="X68" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y68" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="Z68" s="9" t="s">
         <v>33</v>
@@ -2670,22 +2664,22 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B69" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H69" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N69" s="2" t="n">
-        <v>1</v>
+      <c r="D69" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="R69" s="22"/>
       <c r="T69" s="2" t="n">
@@ -2697,10 +2691,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>0</v>
@@ -2722,16 +2716,16 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="2" t="n">
-        <v>2</v>
+      <c r="N71" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="T71" s="2" t="n">
         <v>0</v>
@@ -2742,7 +2736,7 @@
     </row>
     <row r="72" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
@@ -2774,7 +2768,7 @@
     </row>
     <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B73" s="23"/>
       <c r="H73" s="2"/>
@@ -2786,7 +2780,7 @@
     </row>
     <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B74" s="23"/>
       <c r="H74" s="2"/>
@@ -2804,10 +2798,10 @@
         <v>32</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N75" s="21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T75" s="21" t="s">
         <v>30</v>
@@ -2893,8 +2887,8 @@
       <c r="H76" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="I76" s="0" t="n">
-        <v>1</v>
+      <c r="I76" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>0</v>
@@ -2913,19 +2907,19 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B77" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L77" s="0" t="n">
-        <v>1</v>
+      <c r="L77" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="M77" s="0" t="n">
         <v>0</v>
@@ -2933,17 +2927,17 @@
       <c r="Q77" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R77" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S77" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="V77" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X77" s="0" t="n">
-        <v>3</v>
+      <c r="R77" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="S77" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V77" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X77" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="Z77" s="9" t="s">
         <v>33</v>
@@ -2951,19 +2945,19 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P78" s="0" t="n">
-        <v>2</v>
+      <c r="N78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P78" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="R78" s="22"/>
       <c r="T78" s="2" t="n">
@@ -2976,19 +2970,19 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N79" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T79" s="2" t="n">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Z79" s="9" t="s">
         <v>33</v>
@@ -2996,7 +2990,7 @@
     </row>
     <row r="80" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="25"/>
@@ -3028,7 +3022,7 @@
     </row>
     <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B81" s="23"/>
       <c r="H81" s="2"/>
@@ -3040,7 +3034,7 @@
     </row>
     <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B82" s="23"/>
       <c r="H82" s="2"/>
@@ -3149,8 +3143,8 @@
       <c r="T84" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="V84" s="0" t="n">
-        <v>3</v>
+      <c r="V84" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="Y84" s="0" t="n">
         <v>0</v>
@@ -3161,37 +3155,37 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B85" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="E85" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F85" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R85" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S85" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U85" s="0" t="n">
-        <v>1</v>
+      <c r="E85" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R85" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="S85" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U85" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="Z85" s="9" t="s">
         <v>33</v>
@@ -3199,10 +3193,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>0</v>
@@ -3224,19 +3218,19 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H87" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N87" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T87" s="2" t="n">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Z87" s="9" t="s">
         <v>33</v>
@@ -3244,7 +3238,7 @@
     </row>
     <row r="88" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="25"/>
@@ -3276,7 +3270,7 @@
     </row>
     <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B89" s="23"/>
       <c r="H89" s="2"/>
@@ -3288,7 +3282,7 @@
     </row>
     <row r="90" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B90" s="23"/>
       <c r="H90" s="2"/>
@@ -3309,10 +3303,10 @@
         <v>32</v>
       </c>
       <c r="N91" s="19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Z91" s="9" t="s">
         <v>33</v>
@@ -3384,8 +3378,8 @@
         <v>34</v>
       </c>
       <c r="B92" s="21"/>
-      <c r="D92" s="22" t="n">
-        <v>3</v>
+      <c r="D92" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="F92" s="22"/>
       <c r="H92" s="21"/>
@@ -3403,19 +3397,19 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B93" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" s="0" t="n">
-        <v>1</v>
+      <c r="F93" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="N93" s="19" t="n">
         <v>0</v>
@@ -3426,11 +3420,11 @@
       <c r="V93" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y93" s="0" t="n">
-        <v>3</v>
+      <c r="X93" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y93" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="Z93" s="9" t="s">
         <v>33</v>
@@ -3438,22 +3432,22 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B94" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H94" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" s="0" t="n">
-        <v>2</v>
+      <c r="H94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="N94" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="T94" s="2" t="n">
-        <v>2</v>
+      <c r="T94" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Z94" s="9" t="s">
         <v>33</v>
@@ -3461,19 +3455,19 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B95" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H95" s="2" t="n">
-        <v>2</v>
+      <c r="H95" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="N95" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="T95" s="2" t="n">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z95" s="9" t="s">
         <v>33</v>
@@ -3481,7 +3475,7 @@
     </row>
     <row r="96" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -3513,7 +3507,7 @@
     </row>
     <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B97" s="23"/>
       <c r="H97" s="2"/>
@@ -3525,7 +3519,7 @@
     </row>
     <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B98" s="23"/>
       <c r="H98" s="2"/>
@@ -3543,13 +3537,13 @@
         <v>30</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N99" s="21" t="s">
         <v>30</v>
       </c>
       <c r="T99" s="21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Z99" s="9" t="s">
         <v>33</v>
@@ -3634,26 +3628,26 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="23"/>
+      <c r="D101" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M101" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="D101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="R101" s="22" t="n">
-        <v>1</v>
+      <c r="R101" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="S101" s="0" t="n">
         <v>0</v>
@@ -3661,11 +3655,11 @@
       <c r="V101" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y101" s="0" t="n">
-        <v>3</v>
+      <c r="X101" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y101" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="Z101" s="9" t="s">
         <v>33</v>
@@ -3673,20 +3667,20 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B102" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="H102" s="2" t="n">
-        <v>2</v>
+      <c r="H102" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="N102" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R102" s="22"/>
-      <c r="T102" s="2" t="n">
-        <v>2</v>
+      <c r="T102" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="X102" s="22"/>
       <c r="Z102" s="9" t="s">
@@ -3695,19 +3689,19 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H103" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N103" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T103" s="2" t="n">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z103" s="9" t="s">
         <v>33</v>
@@ -3715,7 +3709,7 @@
     </row>
     <row r="104" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="25"/>
@@ -3747,7 +3741,7 @@
     </row>
     <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B105" s="23"/>
       <c r="H105" s="2"/>
@@ -3759,7 +3753,7 @@
     </row>
     <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B106" s="23"/>
       <c r="H106" s="2"/>
@@ -3777,10 +3771,10 @@
         <v>30</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L107" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N107" s="21" t="s">
         <v>30</v>
@@ -3860,11 +3854,11 @@
       <c r="G108" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H108" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" s="0" t="n">
-        <v>1</v>
+      <c r="H108" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>0</v>
@@ -3882,26 +3876,26 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="D109" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="D109" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F109" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H109" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L109" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M109" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" s="2" t="n">
-        <v>1</v>
+      <c r="H109" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L109" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M109" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="R109" s="22"/>
       <c r="Z109" s="9" t="s">
@@ -3910,13 +3904,13 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H110" s="2" t="n">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="L110" s="0" t="n">
         <v>0</v>
@@ -3932,10 +3926,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H111" s="2" t="n">
         <v>0</v>
@@ -3943,8 +3937,8 @@
       <c r="L111" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="2" t="n">
-        <v>2</v>
+      <c r="N111" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Z111" s="9" t="s">
         <v>33</v>
@@ -3952,7 +3946,7 @@
     </row>
     <row r="112" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="25"/>
@@ -3984,7 +3978,7 @@
     </row>
     <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B113" s="23"/>
       <c r="H113" s="2"/>
@@ -3996,7 +3990,7 @@
     </row>
     <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B114" s="23"/>
       <c r="H114" s="2"/>

--- a/tools_n_data/itsumonanndodemo-ghibri.xlsx
+++ b/tools_n_data/itsumonanndodemo-ghibri.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="53">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
@@ -697,8 +697,8 @@
   </sheetPr>
   <dimension ref="A1:CI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W69" activeCellId="0" sqref="W69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2215,8 +2215,8 @@
       <c r="B55" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>39</v>
+      <c r="H55" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>39</v>
@@ -2649,8 +2649,8 @@
       <c r="V68" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="W68" s="0" t="s">
-        <v>50</v>
+      <c r="W68" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="X68" s="0" t="s">
         <v>35</v>
